--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3738078.204115827</v>
+        <v>3735640.112892996</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12186750.5917371</v>
+        <v>12186750.59173709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25880.54059154681</v>
+        <v>25880.54059154771</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,46 +677,46 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.587217180758445</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="V2" t="n">
-        <v>5.587217180758445</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,76 +735,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>12.46326292246988</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>14.14993519808116</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12.46326292246988</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>14.14993519808116</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,64 +823,64 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>14.14993519808116</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>14.14993519808116</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>14.14993519808116</v>
+      </c>
+      <c r="X4" t="n">
         <v>12.46326292246988</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14.14993519808116</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14.14993519808116</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14.14993519808116</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>14.14993519808116</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="V5" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,76 +972,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>12.46326292246988</v>
+      </c>
+      <c r="S6" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.46326292246988</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>14.14993519808116</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,50 +1066,50 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>12.46326292246988</v>
+      </c>
+      <c r="U7" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="T7" t="n">
-        <v>14.14993519808116</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>12.46326292246988</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="F8" t="n">
-        <v>46.7575966579949</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.83663562711425</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>46.7575966579949</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>27.34745550924765</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="W8" t="n">
-        <v>46.7575966579949</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>34.30804539465108</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46.7575966579949</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>41.1840911363619</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>46.7575966579949</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>41.1840911363625</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>46.7575966579949</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>10.09066742608963</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.1840911363619</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>31.09342371027289</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>46.7575966579949</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>46.7575966579949</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.7575966579949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C11" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D11" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E11" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F11" t="n">
-        <v>375.2658433894972</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G11" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H11" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T11" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V11" t="n">
         <v>296.142056117921</v>
@@ -1436,7 +1436,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1534,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E13" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F13" t="n">
         <v>113.8108456707173</v>
@@ -1546,7 +1546,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I13" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S13" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T13" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U13" t="n">
         <v>254.5831063612652</v>
@@ -1594,7 +1594,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C14" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D14" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E14" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F14" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G14" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H14" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T14" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U14" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V14" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W14" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X14" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y14" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C16" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D16" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E16" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F16" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G16" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H16" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I16" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S16" t="n">
-        <v>152.2386502424821</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T16" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U16" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V16" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W16" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X16" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894972</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
         <v>113.8108456707173</v>
@@ -2017,10 +2017,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442983</v>
+        <v>110.1245053443007</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659994</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401409</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187931</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2479,13 +2479,13 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707168</v>
       </c>
       <c r="G25" t="n">
         <v>134.0758985510282</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>360.1624830679546</v>
+        <v>360.1624830679549</v>
       </c>
       <c r="C26" t="n">
-        <v>342.7015331754816</v>
+        <v>342.7015331754819</v>
       </c>
       <c r="D26" t="n">
-        <v>332.111683025157</v>
+        <v>332.1116830251573</v>
       </c>
       <c r="E26" t="n">
-        <v>359.3590114767358</v>
+        <v>359.3590114767361</v>
       </c>
       <c r="F26" t="n">
-        <v>384.3046871461855</v>
+        <v>384.3046871461858</v>
       </c>
       <c r="G26" t="n">
-        <v>387.5930477814377</v>
+        <v>387.593047781438</v>
       </c>
       <c r="H26" t="n">
-        <v>264.2805097514439</v>
+        <v>264.2805097514442</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.35899017963973</v>
+        <v>69.35899017964002</v>
       </c>
       <c r="T26" t="n">
-        <v>178.0314464112603</v>
+        <v>178.0314464112606</v>
       </c>
       <c r="U26" t="n">
-        <v>228.3632278212568</v>
+        <v>228.3632278212571</v>
       </c>
       <c r="V26" t="n">
-        <v>305.1808998746089</v>
+        <v>305.1808998746092</v>
       </c>
       <c r="W26" t="n">
-        <v>326.669610121887</v>
+        <v>326.6696101218873</v>
       </c>
       <c r="X26" t="n">
-        <v>347.1597420829431</v>
+        <v>347.1597420829434</v>
       </c>
       <c r="Y26" t="n">
-        <v>363.6665800605276</v>
+        <v>363.6665800605279</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.2606215864113</v>
+        <v>157.2606215864116</v>
       </c>
       <c r="C28" t="n">
-        <v>144.6754625031019</v>
+        <v>144.6754625031021</v>
       </c>
       <c r="D28" t="n">
-        <v>126.0441144226864</v>
+        <v>126.0441144226866</v>
       </c>
       <c r="E28" t="n">
-        <v>123.8626040510432</v>
+        <v>123.8626040510435</v>
       </c>
       <c r="F28" t="n">
-        <v>122.8496894274053</v>
+        <v>90.08490744515844</v>
       </c>
       <c r="G28" t="n">
-        <v>123.1475898700998</v>
+        <v>143.1147423077164</v>
       </c>
       <c r="H28" t="n">
-        <v>119.1633491009877</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>63.56513515121807</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.08631605890376</v>
+        <v>51.08631605890402</v>
       </c>
       <c r="S28" t="n">
-        <v>161.2774939991713</v>
+        <v>161.2774939991716</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>195.5261137968303</v>
       </c>
       <c r="U28" t="n">
-        <v>263.6219501179531</v>
+        <v>263.6219501179534</v>
       </c>
       <c r="V28" t="n">
-        <v>229.566284728302</v>
+        <v>229.5662847283023</v>
       </c>
       <c r="W28" t="n">
-        <v>263.951639741065</v>
+        <v>263.9516397410653</v>
       </c>
       <c r="X28" t="n">
-        <v>203.1382967935112</v>
+        <v>203.1382967935114</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.0132947565688</v>
+        <v>196.0132947565691</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>360.1624830679546</v>
+        <v>360.162483067955</v>
       </c>
       <c r="C29" t="n">
-        <v>342.7015331754816</v>
+        <v>342.7015331754819</v>
       </c>
       <c r="D29" t="n">
-        <v>332.111683025157</v>
+        <v>332.1116830251573</v>
       </c>
       <c r="E29" t="n">
-        <v>359.3590114767358</v>
+        <v>359.3590114767362</v>
       </c>
       <c r="F29" t="n">
-        <v>384.3046871461855</v>
+        <v>384.3046871461858</v>
       </c>
       <c r="G29" t="n">
-        <v>387.5930477814377</v>
+        <v>387.5930477814381</v>
       </c>
       <c r="H29" t="n">
-        <v>264.2805097514439</v>
+        <v>264.2805097514442</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.35899017963973</v>
+        <v>69.35899017964007</v>
       </c>
       <c r="T29" t="n">
-        <v>178.0314464112603</v>
+        <v>178.0314464112607</v>
       </c>
       <c r="U29" t="n">
-        <v>228.3632278212568</v>
+        <v>228.3632278212572</v>
       </c>
       <c r="V29" t="n">
-        <v>305.1808998746089</v>
+        <v>305.1808998746093</v>
       </c>
       <c r="W29" t="n">
-        <v>326.669610121887</v>
+        <v>326.6696101218874</v>
       </c>
       <c r="X29" t="n">
-        <v>347.1597420829431</v>
+        <v>347.1597420829434</v>
       </c>
       <c r="Y29" t="n">
-        <v>363.6665800605276</v>
+        <v>363.666580060528</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157.2606215864113</v>
+        <v>157.2606215864117</v>
       </c>
       <c r="C31" t="n">
-        <v>144.6754625031019</v>
+        <v>72.29693857636371</v>
       </c>
       <c r="D31" t="n">
-        <v>126.0441144226864</v>
+        <v>126.0441144226867</v>
       </c>
       <c r="E31" t="n">
-        <v>123.8626040510432</v>
+        <v>123.8626040510435</v>
       </c>
       <c r="F31" t="n">
-        <v>122.8496894274053</v>
+        <v>122.8496894274056</v>
       </c>
       <c r="G31" t="n">
-        <v>46.78482517425758</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>119.163349100988</v>
       </c>
       <c r="I31" t="n">
-        <v>63.56513515121807</v>
+        <v>63.56513515121841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>51.08631605890376</v>
+        <v>51.0863160589041</v>
       </c>
       <c r="S31" t="n">
-        <v>161.2774939991713</v>
+        <v>161.2774939991716</v>
       </c>
       <c r="T31" t="n">
-        <v>195.52611379683</v>
+        <v>195.5261137968303</v>
       </c>
       <c r="U31" t="n">
-        <v>263.6219501179531</v>
+        <v>263.6219501179535</v>
       </c>
       <c r="V31" t="n">
-        <v>229.566284728302</v>
+        <v>229.5662847283024</v>
       </c>
       <c r="W31" t="n">
-        <v>263.951639741065</v>
+        <v>263.9516397410654</v>
       </c>
       <c r="X31" t="n">
-        <v>203.1382967935112</v>
+        <v>203.1382967935115</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.0132947565688</v>
+        <v>196.0132947565692</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295167</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442993</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453001</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221873</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684688</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947557</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295161</v>
+        <v>60.32014642295186</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464137</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943526</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053443038</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139452995</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221561</v>
+        <v>42.04747230221587</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684688</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894979</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947557</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295161</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943538</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139452995</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230222008</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3907,13 +3907,13 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707162</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442985</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
         <v>54.52629139453015</v>
@@ -4150,7 +4150,7 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442985</v>
       </c>
       <c r="I46" t="n">
         <v>54.52629139453015</v>
@@ -4186,7 +4186,7 @@
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401409</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.95608707438682</v>
+        <v>22.37035940149558</v>
       </c>
       <c r="C2" t="n">
-        <v>50.95608707438682</v>
+        <v>22.37035940149558</v>
       </c>
       <c r="D2" t="n">
-        <v>36.6632232379412</v>
+        <v>22.37035940149558</v>
       </c>
       <c r="E2" t="n">
-        <v>36.6632232379412</v>
+        <v>22.37035940149558</v>
       </c>
       <c r="F2" t="n">
-        <v>29.71772248873773</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="G2" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="H2" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="I2" t="n">
         <v>1.131994815846493</v>
       </c>
       <c r="J2" t="n">
-        <v>15.14043066194684</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="K2" t="n">
-        <v>29.14886650804719</v>
+        <v>14.5744332540236</v>
       </c>
       <c r="L2" t="n">
-        <v>29.14886650804719</v>
+        <v>14.5744332540236</v>
       </c>
       <c r="M2" t="n">
-        <v>42.5913049462243</v>
+        <v>28.58286910012395</v>
       </c>
       <c r="N2" t="n">
         <v>42.5913049462243</v>
@@ -4346,34 +4346,34 @@
         <v>42.5913049462243</v>
       </c>
       <c r="P2" t="n">
-        <v>42.5913049462243</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="Q2" t="n">
         <v>56.59974079232465</v>
       </c>
       <c r="R2" t="n">
-        <v>56.59974079232465</v>
+        <v>50.95608707438682</v>
       </c>
       <c r="S2" t="n">
-        <v>56.59974079232465</v>
+        <v>50.95608707438682</v>
       </c>
       <c r="T2" t="n">
-        <v>56.59974079232465</v>
+        <v>36.6632232379412</v>
       </c>
       <c r="U2" t="n">
-        <v>56.59974079232465</v>
+        <v>22.37035940149558</v>
       </c>
       <c r="V2" t="n">
-        <v>50.95608707438682</v>
+        <v>22.37035940149558</v>
       </c>
       <c r="W2" t="n">
-        <v>50.95608707438682</v>
+        <v>22.37035940149558</v>
       </c>
       <c r="X2" t="n">
-        <v>50.95608707438682</v>
+        <v>22.37035940149558</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.95608707438682</v>
+        <v>22.37035940149558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.30687695587903</v>
+        <v>13.72114928298779</v>
       </c>
       <c r="C3" t="n">
-        <v>42.30687695587903</v>
+        <v>13.72114928298779</v>
       </c>
       <c r="D3" t="n">
-        <v>28.01401311943341</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="E3" t="n">
-        <v>28.01401311943341</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="F3" t="n">
-        <v>13.72114928298779</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="G3" t="n">
-        <v>13.72114928298779</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="H3" t="n">
         <v>1.131994815846493</v>
@@ -4407,7 +4407,7 @@
         <v>1.131994815846493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.14043066194684</v>
+        <v>14.5744332540236</v>
       </c>
       <c r="K3" t="n">
         <v>28.58286910012395</v>
@@ -4416,13 +4416,13 @@
         <v>28.58286910012395</v>
       </c>
       <c r="M3" t="n">
-        <v>28.58286910012395</v>
+        <v>42.5913049462243</v>
       </c>
       <c r="N3" t="n">
-        <v>42.5913049462243</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="O3" t="n">
-        <v>42.5913049462243</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="P3" t="n">
         <v>56.59974079232465</v>
@@ -4431,13 +4431,13 @@
         <v>56.59974079232465</v>
       </c>
       <c r="R3" t="n">
-        <v>42.30687695587903</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="S3" t="n">
-        <v>42.30687695587903</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="T3" t="n">
-        <v>42.30687695587903</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="U3" t="n">
         <v>42.30687695587903</v>
@@ -4452,7 +4452,7 @@
         <v>42.30687695587903</v>
       </c>
       <c r="Y3" t="n">
-        <v>42.30687695587903</v>
+        <v>28.01401311943341</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.59974079232465</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="C4" t="n">
-        <v>56.59974079232465</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="D4" t="n">
-        <v>56.59974079232465</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="E4" t="n">
-        <v>44.01058632518335</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="F4" t="n">
-        <v>29.71772248873773</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="G4" t="n">
-        <v>29.71772248873773</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="H4" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="I4" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="J4" t="n">
         <v>1.131994815846493</v>
       </c>
       <c r="K4" t="n">
-        <v>1.131994815846493</v>
+        <v>15.14043066194684</v>
       </c>
       <c r="L4" t="n">
         <v>15.14043066194684</v>
@@ -4501,7 +4501,7 @@
         <v>42.5913049462243</v>
       </c>
       <c r="O4" t="n">
-        <v>56.59974079232465</v>
+        <v>42.5913049462243</v>
       </c>
       <c r="P4" t="n">
         <v>56.59974079232465</v>
@@ -4510,28 +4510,28 @@
         <v>56.59974079232465</v>
       </c>
       <c r="R4" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="S4" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="T4" t="n">
-        <v>56.59974079232465</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="U4" t="n">
-        <v>56.59974079232465</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="V4" t="n">
-        <v>56.59974079232465</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="W4" t="n">
-        <v>56.59974079232465</v>
+        <v>13.72114928298779</v>
       </c>
       <c r="X4" t="n">
-        <v>56.59974079232465</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="Y4" t="n">
-        <v>56.59974079232465</v>
+        <v>1.131994815846493</v>
       </c>
     </row>
     <row r="5">
@@ -4568,22 +4568,22 @@
         <v>14.5744332540236</v>
       </c>
       <c r="K5" t="n">
+        <v>14.5744332540236</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.5744332540236</v>
+      </c>
+      <c r="M5" t="n">
         <v>28.58286910012395</v>
-      </c>
-      <c r="L5" t="n">
-        <v>42.5913049462243</v>
-      </c>
-      <c r="M5" t="n">
-        <v>42.5913049462243</v>
       </c>
       <c r="N5" t="n">
         <v>42.5913049462243</v>
       </c>
       <c r="O5" t="n">
-        <v>42.5913049462243</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="P5" t="n">
-        <v>42.5913049462243</v>
+        <v>56.59974079232465</v>
       </c>
       <c r="Q5" t="n">
         <v>56.59974079232465</v>
@@ -4598,7 +4598,7 @@
         <v>42.30687695587903</v>
       </c>
       <c r="U5" t="n">
-        <v>42.30687695587903</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="V5" t="n">
         <v>28.01401311943341</v>
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.01401311943341</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="C6" t="n">
-        <v>28.01401311943341</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="D6" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="E6" t="n">
         <v>1.131994815846493</v>
@@ -4644,7 +4644,7 @@
         <v>1.131994815846493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.14043066194684</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="K6" t="n">
         <v>15.14043066194684</v>
@@ -4668,28 +4668,28 @@
         <v>56.59974079232465</v>
       </c>
       <c r="R6" t="n">
-        <v>42.30687695587903</v>
+        <v>44.01058632518335</v>
       </c>
       <c r="S6" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="T6" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="U6" t="n">
-        <v>42.30687695587903</v>
+        <v>29.71772248873773</v>
       </c>
       <c r="V6" t="n">
-        <v>42.30687695587903</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="W6" t="n">
-        <v>42.30687695587903</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="X6" t="n">
-        <v>42.30687695587903</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="Y6" t="n">
-        <v>42.30687695587903</v>
+        <v>1.131994815846493</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="C7" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="E7" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="F7" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="G7" t="n">
         <v>1.131994815846493</v>
@@ -4729,7 +4729,7 @@
         <v>15.14043066194684</v>
       </c>
       <c r="L7" t="n">
-        <v>28.58286910012395</v>
+        <v>15.14043066194684</v>
       </c>
       <c r="M7" t="n">
         <v>28.58286910012395</v>
@@ -4738,37 +4738,37 @@
         <v>42.5913049462243</v>
       </c>
       <c r="O7" t="n">
-        <v>56.59974079232465</v>
+        <v>42.5913049462243</v>
       </c>
       <c r="P7" t="n">
         <v>56.59974079232465</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.59974079232465</v>
+        <v>42.30687695587903</v>
       </c>
       <c r="R7" t="n">
-        <v>56.59974079232465</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="S7" t="n">
-        <v>42.30687695587903</v>
+        <v>28.01401311943341</v>
       </c>
       <c r="T7" t="n">
-        <v>28.01401311943341</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="U7" t="n">
-        <v>28.01401311943341</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="V7" t="n">
-        <v>28.01401311943341</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="W7" t="n">
-        <v>28.01401311943341</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="X7" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.42485865229211</v>
+        <v>1.131994815846493</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.94690297012359</v>
+        <v>105.145899710117</v>
       </c>
       <c r="C8" t="n">
-        <v>64.94690297012359</v>
+        <v>105.145899710117</v>
       </c>
       <c r="D8" t="n">
-        <v>64.94690297012359</v>
+        <v>105.145899710117</v>
       </c>
       <c r="E8" t="n">
-        <v>64.94690297012359</v>
+        <v>57.91600409598007</v>
       </c>
       <c r="F8" t="n">
-        <v>17.71700735598732</v>
+        <v>50.9705033467766</v>
       </c>
       <c r="G8" t="n">
-        <v>3.740607732639592</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="H8" t="n">
-        <v>3.740607732639592</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="I8" t="n">
-        <v>3.740607732639592</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="J8" t="n">
-        <v>3.740607732639592</v>
+        <v>50.03062842405527</v>
       </c>
       <c r="K8" t="n">
-        <v>50.03062842405454</v>
+        <v>92.12084758531887</v>
       </c>
       <c r="L8" t="n">
-        <v>50.03062842405454</v>
+        <v>92.12084758531887</v>
       </c>
       <c r="M8" t="n">
-        <v>96.32064911546949</v>
+        <v>138.4108682767345</v>
       </c>
       <c r="N8" t="n">
-        <v>128.1859390377735</v>
+        <v>170.2761581990393</v>
       </c>
       <c r="O8" t="n">
-        <v>174.4759597291884</v>
+        <v>187.0303866319823</v>
       </c>
       <c r="P8" t="n">
-        <v>187.0303866319796</v>
+        <v>187.0303866319823</v>
       </c>
       <c r="Q8" t="n">
-        <v>187.0303866319796</v>
+        <v>187.0303866319823</v>
       </c>
       <c r="R8" t="n">
-        <v>187.0303866319796</v>
+        <v>187.0303866319823</v>
       </c>
       <c r="S8" t="n">
-        <v>187.0303866319796</v>
+        <v>187.0303866319823</v>
       </c>
       <c r="T8" t="n">
-        <v>139.8004910178433</v>
+        <v>187.0303866319823</v>
       </c>
       <c r="U8" t="n">
-        <v>139.8004910178433</v>
+        <v>187.0303866319823</v>
       </c>
       <c r="V8" t="n">
-        <v>112.1767985842599</v>
+        <v>139.8004910178454</v>
       </c>
       <c r="W8" t="n">
-        <v>64.94690297012359</v>
+        <v>139.8004910178454</v>
       </c>
       <c r="X8" t="n">
-        <v>64.94690297012359</v>
+        <v>139.8004910178454</v>
       </c>
       <c r="Y8" t="n">
-        <v>64.94690297012359</v>
+        <v>105.145899710117</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.34069978957081</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="C9" t="n">
-        <v>45.34069978957081</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="D9" t="n">
-        <v>45.34069978957081</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="E9" t="n">
-        <v>45.34069978957081</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="F9" t="n">
-        <v>3.740607732639592</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="G9" t="n">
-        <v>3.740607732639592</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="H9" t="n">
-        <v>3.740607732639592</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="I9" t="n">
-        <v>3.740607732639592</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="J9" t="n">
-        <v>3.740607732639592</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="K9" t="n">
-        <v>3.740607732639592</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="L9" t="n">
-        <v>35.19043289601484</v>
+        <v>35.19043289601535</v>
       </c>
       <c r="M9" t="n">
-        <v>81.48045358742979</v>
+        <v>81.48045358743099</v>
       </c>
       <c r="N9" t="n">
-        <v>127.7704742788447</v>
+        <v>127.7704742788466</v>
       </c>
       <c r="O9" t="n">
-        <v>171.3705490338647</v>
+        <v>171.370549033867</v>
       </c>
       <c r="P9" t="n">
-        <v>187.0303866319796</v>
+        <v>187.0303866319823</v>
       </c>
       <c r="Q9" t="n">
-        <v>187.0303866319796</v>
+        <v>187.0303866319823</v>
       </c>
       <c r="R9" t="n">
-        <v>139.8004910178433</v>
+        <v>139.8004910178454</v>
       </c>
       <c r="S9" t="n">
-        <v>139.8004910178433</v>
+        <v>139.8004910178454</v>
       </c>
       <c r="T9" t="n">
-        <v>139.8004910178433</v>
+        <v>98.20039896091356</v>
       </c>
       <c r="U9" t="n">
-        <v>139.8004910178433</v>
+        <v>98.20039896091356</v>
       </c>
       <c r="V9" t="n">
-        <v>92.57059540370707</v>
+        <v>50.9705033467766</v>
       </c>
       <c r="W9" t="n">
-        <v>92.57059540370707</v>
+        <v>50.9705033467766</v>
       </c>
       <c r="X9" t="n">
-        <v>92.57059540370707</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="Y9" t="n">
-        <v>92.57059540370707</v>
+        <v>3.740607732639647</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.34069978957081</v>
+        <v>50.9705033467766</v>
       </c>
       <c r="C10" t="n">
-        <v>45.34069978957081</v>
+        <v>50.9705033467766</v>
       </c>
       <c r="D10" t="n">
-        <v>45.34069978957081</v>
+        <v>50.9705033467766</v>
       </c>
       <c r="E10" t="n">
-        <v>45.34069978957081</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="F10" t="n">
-        <v>45.34069978957081</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="G10" t="n">
-        <v>45.34069978957081</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="H10" t="n">
-        <v>45.34069978957081</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="I10" t="n">
-        <v>3.740607732639592</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="J10" t="n">
-        <v>3.740607732639592</v>
+        <v>3.740607732639647</v>
       </c>
       <c r="K10" t="n">
-        <v>3.740607732639592</v>
+        <v>50.03062842405527</v>
       </c>
       <c r="L10" t="n">
-        <v>50.03062842405454</v>
+        <v>96.3206491154709</v>
       </c>
       <c r="M10" t="n">
-        <v>96.32064911546949</v>
+        <v>96.3206491154709</v>
       </c>
       <c r="N10" t="n">
-        <v>140.7403659405647</v>
+        <v>142.6106698068865</v>
       </c>
       <c r="O10" t="n">
-        <v>140.7403659405647</v>
+        <v>187.0303866319823</v>
       </c>
       <c r="P10" t="n">
-        <v>187.0303866319796</v>
+        <v>187.0303866319823</v>
       </c>
       <c r="Q10" t="n">
-        <v>187.0303866319796</v>
+        <v>155.622887934737</v>
       </c>
       <c r="R10" t="n">
-        <v>187.0303866319796</v>
+        <v>155.622887934737</v>
       </c>
       <c r="S10" t="n">
-        <v>187.0303866319796</v>
+        <v>155.622887934737</v>
       </c>
       <c r="T10" t="n">
-        <v>139.8004910178433</v>
+        <v>108.3929923206001</v>
       </c>
       <c r="U10" t="n">
-        <v>139.8004910178433</v>
+        <v>61.1630967064631</v>
       </c>
       <c r="V10" t="n">
-        <v>139.8004910178433</v>
+        <v>61.1630967064631</v>
       </c>
       <c r="W10" t="n">
-        <v>92.57059540370707</v>
+        <v>61.1630967064631</v>
       </c>
       <c r="X10" t="n">
-        <v>92.57059540370707</v>
+        <v>61.1630967064631</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.34069978957081</v>
+        <v>61.1630967064631</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F11" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G11" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H11" t="n">
         <v>84.98040897511622</v>
@@ -5039,34 +5039,34 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R11" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S11" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T11" t="n">
         <v>4017.391409283565</v>
@@ -5118,28 +5118,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J12" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K12" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L12" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M12" t="n">
-        <v>1087.697503179733</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="N12" t="n">
-        <v>1665.552851106135</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O12" t="n">
-        <v>2171.957806054385</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P12" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R12" t="n">
         <v>2555.644190323788</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.8624197502096</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C13" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D13" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F13" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G13" t="n">
         <v>251.2943450749444</v>
@@ -5197,49 +5197,49 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J13" t="n">
-        <v>185.1742787042776</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K13" t="n">
-        <v>459.5287020443603</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L13" t="n">
-        <v>857.3827676902777</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M13" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N13" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O13" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P13" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q13" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R13" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S13" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T13" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U13" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V13" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y13" t="n">
         <v>1022.581387254981</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C14" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D14" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E14" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F14" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G14" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H14" t="n">
         <v>84.98040897511622</v>
@@ -5276,28 +5276,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R14" t="n">
         <v>4249.020448755811</v>
@@ -5309,19 +5309,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U14" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V14" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W14" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X14" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y14" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>468.6667932445192</v>
+        <v>259.8188512332393</v>
       </c>
       <c r="L15" t="n">
-        <v>922.4654228388466</v>
+        <v>713.6174808275667</v>
       </c>
       <c r="M15" t="n">
-        <v>1471.383887449136</v>
+        <v>1262.535945437856</v>
       </c>
       <c r="N15" t="n">
-        <v>2049.239235375538</v>
+        <v>1840.391293364258</v>
       </c>
       <c r="O15" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C16" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D16" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E16" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F16" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H16" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I16" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K16" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L16" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M16" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N16" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O16" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P16" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q16" t="n">
         <v>2529.521427597204</v>
@@ -5461,25 +5461,25 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T16" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U16" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y16" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511622</v>
@@ -5516,22 +5516,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767228</v>
@@ -5592,25 +5592,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L18" t="n">
-        <v>510.5988892561712</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M18" t="n">
-        <v>1059.51735386646</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.372701792863</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O18" t="n">
-        <v>2143.777656741113</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P18" t="n">
-        <v>2530.879212293269</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q18" t="n">
         <v>2530.879212293269</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502088</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477705</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609034</v>
+        <v>617.6685920609056</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039789</v>
+        <v>501.6849958039811</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315371</v>
+        <v>386.7245456315394</v>
       </c>
       <c r="G19" t="n">
-        <v>251.294345074943</v>
+        <v>251.2943450749453</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I20" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
         <v>4142.907144767228</v>
@@ -5777,7 +5777,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
         <v>4017.391409283565</v>
@@ -5829,22 +5829,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L21" t="n">
-        <v>688.8525027970471</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.770967407336</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.626315333739</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O21" t="n">
-        <v>2322.031270281989</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
         <v>2322.031270281989</v>
@@ -5884,58 +5884,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C22" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127669</v>
@@ -5953,7 +5953,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5990,13 +5990,13 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
         <v>2681.771598889755</v>
@@ -6023,16 +6023,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>165.6257438946549</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K24" t="n">
-        <v>468.6667932445192</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L24" t="n">
-        <v>922.4654228388466</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M24" t="n">
-        <v>1471.383887449136</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N24" t="n">
-        <v>2049.239235375538</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.644190323788</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C25" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443611</v>
@@ -6160,34 +6160,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6215,13 +6215,13 @@
         <v>746.0471608140119</v>
       </c>
       <c r="G26" t="n">
-        <v>354.5390317418526</v>
+        <v>354.539031741853</v>
       </c>
       <c r="H26" t="n">
-        <v>87.58902189190928</v>
+        <v>87.58902189190937</v>
       </c>
       <c r="I26" t="n">
-        <v>87.58902189190928</v>
+        <v>87.58902189190937</v>
       </c>
       <c r="J26" t="n">
         <v>340.1019145244767</v>
@@ -6242,28 +6242,28 @@
         <v>3313.67646315008</v>
       </c>
       <c r="P26" t="n">
-        <v>3944.087286452357</v>
+        <v>3879.028030778107</v>
       </c>
       <c r="Q26" t="n">
-        <v>4273.337790606881</v>
+        <v>4208.278534932631</v>
       </c>
       <c r="R26" t="n">
-        <v>4379.451094595464</v>
+        <v>4379.451094595468</v>
       </c>
       <c r="S26" t="n">
-        <v>4309.391508555424</v>
+        <v>4309.391508555428</v>
       </c>
       <c r="T26" t="n">
-        <v>4129.561764705666</v>
+        <v>4129.56176470567</v>
       </c>
       <c r="U26" t="n">
-        <v>3898.891837613488</v>
+        <v>3898.891837613491</v>
       </c>
       <c r="V26" t="n">
-        <v>3590.62830238661</v>
+        <v>3590.628302386612</v>
       </c>
       <c r="W26" t="n">
-        <v>3260.658999233189</v>
+        <v>3260.658999233191</v>
       </c>
       <c r="X26" t="n">
         <v>2909.992593088803</v>
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>944.1666053012713</v>
+        <v>944.1666053012715</v>
       </c>
       <c r="C27" t="n">
-        <v>769.7135760201443</v>
+        <v>769.7135760201445</v>
       </c>
       <c r="D27" t="n">
-        <v>620.779166358893</v>
+        <v>620.7791663588932</v>
       </c>
       <c r="E27" t="n">
-        <v>461.5417113534376</v>
+        <v>461.5417113534377</v>
       </c>
       <c r="F27" t="n">
         <v>315.0071533803226</v>
       </c>
       <c r="G27" t="n">
-        <v>179.0533476932734</v>
+        <v>179.0533476932735</v>
       </c>
       <c r="H27" t="n">
-        <v>92.50437633856484</v>
+        <v>92.50437633856492</v>
       </c>
       <c r="I27" t="n">
-        <v>87.58902189190928</v>
+        <v>87.58902189190937</v>
       </c>
       <c r="J27" t="n">
-        <v>219.1661239003789</v>
+        <v>87.58902189190937</v>
       </c>
       <c r="K27" t="n">
-        <v>522.2071732502433</v>
+        <v>390.6300712417737</v>
       </c>
       <c r="L27" t="n">
-        <v>976.0058028445707</v>
+        <v>844.4287008361011</v>
       </c>
       <c r="M27" t="n">
-        <v>976.0058028445707</v>
+        <v>1393.34716544639</v>
       </c>
       <c r="N27" t="n">
-        <v>1553.861150770973</v>
+        <v>1431.133372698376</v>
       </c>
       <c r="O27" t="n">
-        <v>2060.266105719223</v>
+        <v>1937.538327646626</v>
       </c>
       <c r="P27" t="n">
         <v>2324.639883198782</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>919.213208282356</v>
+        <v>721.7120832350479</v>
       </c>
       <c r="C28" t="n">
-        <v>773.076377471142</v>
+        <v>575.5752524238336</v>
       </c>
       <c r="D28" t="n">
-        <v>645.7590901754992</v>
+        <v>448.2579651281905</v>
       </c>
       <c r="E28" t="n">
-        <v>520.645348709799</v>
+        <v>323.14422366249</v>
       </c>
       <c r="F28" t="n">
-        <v>396.5547533285816</v>
+        <v>232.1493676572795</v>
       </c>
       <c r="G28" t="n">
-        <v>272.1632484092888</v>
+        <v>87.58902189190937</v>
       </c>
       <c r="H28" t="n">
-        <v>151.7962291153619</v>
+        <v>87.58902189190937</v>
       </c>
       <c r="I28" t="n">
-        <v>87.58902189190928</v>
+        <v>87.58902189190937</v>
       </c>
       <c r="J28" t="n">
-        <v>178.8344363019505</v>
+        <v>178.8344363019503</v>
       </c>
       <c r="K28" t="n">
-        <v>444.2404043229121</v>
+        <v>444.2404043229117</v>
       </c>
       <c r="L28" t="n">
-        <v>833.1460146497086</v>
+        <v>833.1460146497078</v>
       </c>
       <c r="M28" t="n">
-        <v>1252.366870681202</v>
+        <v>1252.366870681201</v>
       </c>
       <c r="N28" t="n">
-        <v>1667.585537676161</v>
+        <v>1667.58553767616</v>
       </c>
       <c r="O28" t="n">
-        <v>2036.796711316003</v>
+        <v>2036.796711316001</v>
       </c>
       <c r="P28" t="n">
-        <v>2332.425056711634</v>
+        <v>2332.425056711632</v>
       </c>
       <c r="Q28" t="n">
-        <v>2460.54239796103</v>
+        <v>2460.542397961027</v>
       </c>
       <c r="R28" t="n">
-        <v>2408.940058507591</v>
+        <v>2408.940058507589</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.033498912469</v>
+        <v>2246.033498912466</v>
       </c>
       <c r="T28" t="n">
-        <v>2246.033498912469</v>
+        <v>2048.532373865162</v>
       </c>
       <c r="U28" t="n">
-        <v>1979.748700813526</v>
+        <v>1782.247575766219</v>
       </c>
       <c r="V28" t="n">
-        <v>1747.863564724332</v>
+        <v>1550.362439677025</v>
       </c>
       <c r="W28" t="n">
-        <v>1481.245746804065</v>
+        <v>1283.744621756757</v>
       </c>
       <c r="X28" t="n">
-        <v>1276.05554802274</v>
+        <v>1078.554422975433</v>
       </c>
       <c r="Y28" t="n">
-        <v>1078.062320995903</v>
+        <v>880.561195948595</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2178.852125282253</v>
+        <v>2178.852125282256</v>
       </c>
       <c r="C29" t="n">
-        <v>1832.688960458535</v>
+        <v>1832.688960458537</v>
       </c>
       <c r="D29" t="n">
-        <v>1497.222613968477</v>
+        <v>1497.222613968479</v>
       </c>
       <c r="E29" t="n">
-        <v>1134.233713486926</v>
+        <v>1134.233713486927</v>
       </c>
       <c r="F29" t="n">
-        <v>746.0471608140114</v>
+        <v>746.0471608140122</v>
       </c>
       <c r="G29" t="n">
-        <v>354.5390317418526</v>
+        <v>354.5390317418531</v>
       </c>
       <c r="H29" t="n">
-        <v>87.58902189190928</v>
+        <v>87.58902189190938</v>
       </c>
       <c r="I29" t="n">
-        <v>87.58902189190928</v>
+        <v>87.58902189190938</v>
       </c>
       <c r="J29" t="n">
         <v>340.1019145244767</v>
@@ -6470,43 +6470,43 @@
         <v>1338.641569967756</v>
       </c>
       <c r="M29" t="n">
-        <v>2131.644359586392</v>
+        <v>2003.822326663531</v>
       </c>
       <c r="N29" t="n">
-        <v>2812.202244729408</v>
+        <v>2684.380211806548</v>
       </c>
       <c r="O29" t="n">
-        <v>3441.498496072941</v>
+        <v>3313.67646315008</v>
       </c>
       <c r="P29" t="n">
-        <v>3944.087286452357</v>
+        <v>3816.265253529496</v>
       </c>
       <c r="Q29" t="n">
-        <v>4273.337790606881</v>
+        <v>4273.337790606885</v>
       </c>
       <c r="R29" t="n">
-        <v>4379.451094595464</v>
+        <v>4379.451094595469</v>
       </c>
       <c r="S29" t="n">
-        <v>4309.391508555424</v>
+        <v>4309.391508555428</v>
       </c>
       <c r="T29" t="n">
-        <v>4129.561764705667</v>
+        <v>4129.561764705671</v>
       </c>
       <c r="U29" t="n">
-        <v>3898.891837613487</v>
+        <v>3898.891837613492</v>
       </c>
       <c r="V29" t="n">
-        <v>3590.628302386609</v>
+        <v>3590.628302386614</v>
       </c>
       <c r="W29" t="n">
-        <v>3260.658999233188</v>
+        <v>3260.658999233192</v>
       </c>
       <c r="X29" t="n">
-        <v>2909.992593088801</v>
+        <v>2909.992593088804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2542.652613229682</v>
+        <v>2542.652613229685</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>944.1666053012713</v>
+        <v>944.1666053012715</v>
       </c>
       <c r="C30" t="n">
-        <v>769.7135760201443</v>
+        <v>769.7135760201445</v>
       </c>
       <c r="D30" t="n">
-        <v>620.779166358893</v>
+        <v>620.7791663588932</v>
       </c>
       <c r="E30" t="n">
-        <v>461.5417113534376</v>
+        <v>461.5417113534377</v>
       </c>
       <c r="F30" t="n">
-        <v>315.0071533803226</v>
+        <v>315.0071533803227</v>
       </c>
       <c r="G30" t="n">
-        <v>179.0533476932734</v>
+        <v>179.0533476932735</v>
       </c>
       <c r="H30" t="n">
-        <v>92.50437633856484</v>
+        <v>92.50437633856495</v>
       </c>
       <c r="I30" t="n">
-        <v>87.58902189190928</v>
+        <v>87.58902189190938</v>
       </c>
       <c r="J30" t="n">
-        <v>219.1661239003789</v>
+        <v>219.166123900379</v>
       </c>
       <c r="K30" t="n">
-        <v>522.2071732502433</v>
+        <v>399.4793951776466</v>
       </c>
       <c r="L30" t="n">
         <v>853.2780247719739</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7120832350531</v>
+        <v>721.7120832350467</v>
       </c>
       <c r="C31" t="n">
-        <v>575.5752524238391</v>
+        <v>648.6848725518511</v>
       </c>
       <c r="D31" t="n">
-        <v>448.2579651281962</v>
+        <v>521.3675852562079</v>
       </c>
       <c r="E31" t="n">
-        <v>323.1442236624961</v>
+        <v>396.2538437905074</v>
       </c>
       <c r="F31" t="n">
-        <v>199.0536282812786</v>
+        <v>272.1632484092896</v>
       </c>
       <c r="G31" t="n">
-        <v>151.7962291153619</v>
+        <v>272.1632484092896</v>
       </c>
       <c r="H31" t="n">
-        <v>151.7962291153619</v>
+        <v>151.7962291153623</v>
       </c>
       <c r="I31" t="n">
-        <v>87.58902189190928</v>
+        <v>87.58902189190938</v>
       </c>
       <c r="J31" t="n">
-        <v>178.8344363019505</v>
+        <v>178.8344363019502</v>
       </c>
       <c r="K31" t="n">
-        <v>444.2404043229121</v>
+        <v>444.2404043229116</v>
       </c>
       <c r="L31" t="n">
-        <v>833.1460146497086</v>
+        <v>833.1460146497077</v>
       </c>
       <c r="M31" t="n">
-        <v>1252.366870681202</v>
+        <v>1252.366870681201</v>
       </c>
       <c r="N31" t="n">
-        <v>1667.585537676161</v>
+        <v>1667.585537676159</v>
       </c>
       <c r="O31" t="n">
-        <v>2036.796711316003</v>
+        <v>2036.796711316</v>
       </c>
       <c r="P31" t="n">
-        <v>2332.425056711634</v>
+        <v>2332.425056711631</v>
       </c>
       <c r="Q31" t="n">
-        <v>2460.54239796103</v>
+        <v>2460.542397961026</v>
       </c>
       <c r="R31" t="n">
-        <v>2408.940058507591</v>
+        <v>2408.940058507588</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.033498912469</v>
+        <v>2246.033498912465</v>
       </c>
       <c r="T31" t="n">
-        <v>2048.532373865166</v>
+        <v>2048.532373865161</v>
       </c>
       <c r="U31" t="n">
-        <v>1782.247575766223</v>
+        <v>1782.247575766218</v>
       </c>
       <c r="V31" t="n">
-        <v>1550.362439677029</v>
+        <v>1550.362439677024</v>
       </c>
       <c r="W31" t="n">
-        <v>1283.744621756761</v>
+        <v>1283.744621756756</v>
       </c>
       <c r="X31" t="n">
-        <v>1078.554422975437</v>
+        <v>1078.554422975431</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.5611959485999</v>
+        <v>880.5611959485939</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796662</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746736</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.5575109835858</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>216.5575109835858</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O33" t="n">
         <v>1934.929714729833</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C34" t="n">
-        <v>735.855734147771</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E34" t="n">
         <v>501.6849958039797</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315381</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
         <v>1104.234664943806</v>
@@ -6926,61 +6926,61 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162837</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>388.0214583249806</v>
+        <v>808.1559021931415</v>
       </c>
       <c r="M36" t="n">
-        <v>936.9399229352697</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N36" t="n">
-        <v>1514.795270861672</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O36" t="n">
         <v>1934.929714729833</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502131</v>
+        <v>872.8624197502079</v>
       </c>
       <c r="C37" t="n">
-        <v>735.855734147775</v>
+        <v>735.8557341477696</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609082</v>
+        <v>617.6685920609024</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039838</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315423</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749483</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443615</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L37" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357086</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645594</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254984</v>
+        <v>1022.581387254979</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7160,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>147.5315942576216</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K39" t="n">
-        <v>450.5726436074859</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L39" t="n">
-        <v>904.3712732018133</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M39" t="n">
-        <v>1453.289737812102</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.289737812102</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O39" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502088</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477705</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609034</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352539</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237499</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645589</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.58138725498</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
         <v>1104.234664943806</v>
@@ -7400,7 +7400,7 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511622</v>
@@ -7488,25 +7488,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K42" t="n">
-        <v>301.7509472448914</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448914</v>
+        <v>510.5988892561712</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551806</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q42" t="n">
         <v>2530.879212293269</v>
@@ -7555,10 +7555,10 @@
         <v>501.6849958039791</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315374</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749432</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796666</v>
+        <v>725.178257479667</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162839</v>
@@ -7646,28 +7646,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
         <v>4249.020448755811</v>
@@ -7679,19 +7679,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K45" t="n">
-        <v>216.5575109835859</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448914</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q45" t="n">
         <v>2530.879212293269</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502102</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039791</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315374</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749432</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7834,22 +7834,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4584073031575</v>
+        <v>92.30847210507633</v>
       </c>
       <c r="K2" t="n">
-        <v>101.2453778494139</v>
+        <v>100.6736632959561</v>
       </c>
       <c r="L2" t="n">
         <v>70.77509118762563</v>
       </c>
       <c r="M2" t="n">
-        <v>60.33981573936373</v>
+        <v>60.91153029282154</v>
       </c>
       <c r="N2" t="n">
-        <v>42.85783408724419</v>
+        <v>57.00776928532534</v>
       </c>
       <c r="O2" t="n">
         <v>53.93939827950163</v>
       </c>
       <c r="P2" t="n">
-        <v>80.88552431659696</v>
+        <v>95.03545951467811</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.5509353961686</v>
+        <v>109.4010001980875</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>88.1361550267076</v>
+        <v>87.56444047324977</v>
       </c>
       <c r="K3" t="n">
-        <v>61.08818728454438</v>
+        <v>61.65990183800218</v>
       </c>
       <c r="L3" t="n">
         <v>17.09256763015119</v>
       </c>
       <c r="M3" t="n">
-        <v>0.393828126856306</v>
+        <v>14.54376332493746</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>9.499811282419955</v>
       </c>
       <c r="P3" t="n">
-        <v>41.30272101106529</v>
+        <v>27.15278581298413</v>
       </c>
       <c r="Q3" t="n">
         <v>68.57434896117478</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>74.52567116310058</v>
+        <v>88.67560636118175</v>
       </c>
       <c r="L4" t="n">
-        <v>79.30925952942985</v>
+        <v>65.15932433134869</v>
       </c>
       <c r="M4" t="n">
         <v>78.98839717679816</v>
@@ -8149,10 +8149,10 @@
         <v>70.06790907676107</v>
       </c>
       <c r="O4" t="n">
-        <v>86.3175062953389</v>
+        <v>72.16757109725775</v>
       </c>
       <c r="P4" t="n">
-        <v>81.00634070431877</v>
+        <v>95.15627590239993</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,25 +8216,25 @@
         <v>96.78146951425705</v>
       </c>
       <c r="K5" t="n">
-        <v>87.59900850511798</v>
+        <v>73.44907330703683</v>
       </c>
       <c r="L5" t="n">
-        <v>67.9954985195867</v>
+        <v>53.84556332150555</v>
       </c>
       <c r="M5" t="n">
-        <v>27.92423337288395</v>
+        <v>42.0741685709651</v>
       </c>
       <c r="N5" t="n">
-        <v>23.71566415887276</v>
+        <v>37.86559935695391</v>
       </c>
       <c r="O5" t="n">
-        <v>35.86399002417318</v>
+        <v>50.01392522225433</v>
       </c>
       <c r="P5" t="n">
         <v>65.4585815600239</v>
       </c>
       <c r="Q5" t="n">
-        <v>111.9659438567774</v>
+        <v>97.81600865869628</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>82.71314644470175</v>
+        <v>68.56321124662058</v>
       </c>
       <c r="K6" t="n">
-        <v>38.24118120917458</v>
+        <v>52.39111640725574</v>
       </c>
       <c r="L6" t="n">
         <v>4.629541779345772</v>
@@ -8377,19 +8377,19 @@
         <v>83.08471163136672</v>
       </c>
       <c r="L7" t="n">
-        <v>71.58312459949353</v>
+        <v>58.00490395487019</v>
       </c>
       <c r="M7" t="n">
-        <v>57.86684336893533</v>
+        <v>71.44506401355868</v>
       </c>
       <c r="N7" t="n">
         <v>62.70393951596478</v>
       </c>
       <c r="O7" t="n">
-        <v>79.51568851293169</v>
+        <v>65.36575331485054</v>
       </c>
       <c r="P7" t="n">
-        <v>75.18621054113731</v>
+        <v>89.33614573921847</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.61233940828073</v>
+        <v>103.369936066276</v>
       </c>
       <c r="K8" t="n">
-        <v>80.35378966464936</v>
+        <v>76.11156589681917</v>
       </c>
       <c r="L8" t="n">
-        <v>4.404541276144499</v>
+        <v>4.404541276143874</v>
       </c>
       <c r="M8" t="n">
-        <v>19.66916674033499</v>
+        <v>19.66916674033496</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>29.83413359441673</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>33.08695092626685</v>
+        <v>20.4057116305176</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.98317961444312</v>
+        <v>63.98317961444266</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>52.72584773740533</v>
+        <v>52.72584773740512</v>
       </c>
       <c r="K9" t="n">
-        <v>11.17260443377984</v>
+        <v>11.17260443377948</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.84950474118038</v>
+        <v>39.84950474118011</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>52.6071179317595</v>
+        <v>99.36471458975487</v>
       </c>
       <c r="L10" t="n">
-        <v>83.86871914698426</v>
+        <v>83.86871914698469</v>
       </c>
       <c r="M10" t="n">
-        <v>82.59487699548944</v>
+        <v>35.83728033749424</v>
       </c>
       <c r="N10" t="n">
-        <v>71.91665589026552</v>
+        <v>73.80585171483136</v>
       </c>
       <c r="O10" t="n">
-        <v>45.50171306588911</v>
+        <v>90.37011389931897</v>
       </c>
       <c r="P10" t="n">
-        <v>104.9466891471524</v>
+        <v>58.18909248915725</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>129.1131645685461</v>
+        <v>63.39674469556684</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>129.1131645685463</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>129.1131645685508</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4.689582056016661e-13</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>32.7647819822471</v>
       </c>
       <c r="G28" t="n">
-        <v>19.96715243761633</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>119.1633491009879</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>63.56513515121836</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>195.52611379683</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>72.3785239267385</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>96.32991713345857</v>
+        <v>143.1147423077165</v>
       </c>
       <c r="H31" t="n">
-        <v>119.1633491009877</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.714273250603583e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.49213974509621e-12</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>654262.2593910521</v>
+        <v>654262.2593910519</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645302.3843304148</v>
+        <v>645302.3843304149</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645456.5311200044</v>
+        <v>645456.5311200045</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645456.5311200045</v>
+        <v>645456.5311200044</v>
       </c>
     </row>
     <row r="14">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800507.3996467453</v>
+        <v>800507.3996467456</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="F2" t="n">
-        <v>800515.7256176751</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.7256176753</v>
+        <v>800515.7256176748</v>
       </c>
       <c r="H2" t="n">
-        <v>800515.7256176752</v>
+        <v>800515.7256176748</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176748</v>
       </c>
       <c r="J2" t="n">
-        <v>795473.1831877913</v>
+        <v>795473.1831877916</v>
       </c>
       <c r="K2" t="n">
-        <v>795473.1831877913</v>
+        <v>795473.1831877909</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176749</v>
+        <v>800515.725617675</v>
       </c>
       <c r="M2" t="n">
         <v>800515.7256176751</v>
@@ -26353,7 +26353,7 @@
         <v>800515.7256176749</v>
       </c>
       <c r="P2" t="n">
-        <v>800515.725617675</v>
+        <v>800515.7256176751</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>24300.14673617377</v>
       </c>
       <c r="D3" t="n">
-        <v>76872.05989834476</v>
+        <v>76872.05989834585</v>
       </c>
       <c r="E3" t="n">
-        <v>1062375.528143325</v>
+        <v>1062375.528143324</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>30290.93149640514</v>
+        <v>30290.93149640507</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7231.075005350465</v>
+        <v>7231.075005350618</v>
       </c>
       <c r="M3" t="n">
-        <v>253066.0428603769</v>
+        <v>253066.0428603766</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18057.08687642064</v>
+        <v>18057.08687642058</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>355292.5819636594</v>
       </c>
       <c r="D4" t="n">
-        <v>333284.3368196799</v>
+        <v>333284.3368196796</v>
       </c>
       <c r="E4" t="n">
         <v>40959.76311601004</v>
       </c>
       <c r="F4" t="n">
-        <v>40959.76311600999</v>
+        <v>40959.76311601009</v>
       </c>
       <c r="G4" t="n">
+        <v>40959.76311601007</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40959.76311601007</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40959.76311601006</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36105.70460784847</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36105.70460784846</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40959.76311601003</v>
+      </c>
+      <c r="M4" t="n">
+        <v>40959.76311600995</v>
+      </c>
+      <c r="N4" t="n">
         <v>40959.76311601</v>
-      </c>
-      <c r="H4" t="n">
-        <v>40959.76311601004</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40959.76311601007</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36105.70460784865</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36105.70460784865</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40959.76311601009</v>
-      </c>
-      <c r="M4" t="n">
-        <v>40959.7631160102</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40959.76311601017</v>
       </c>
       <c r="O4" t="n">
         <v>40959.76311601004</v>
       </c>
       <c r="P4" t="n">
-        <v>40959.76311601001</v>
+        <v>40959.76311601004</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>40739.27482484731</v>
       </c>
       <c r="D5" t="n">
-        <v>44420.76589007089</v>
+        <v>44420.76589007095</v>
       </c>
       <c r="E5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="F5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>96329.09336313701</v>
+        <v>96329.09336313704</v>
       </c>
       <c r="K5" t="n">
-        <v>96329.09336313701</v>
+        <v>96329.09336313704</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>143478.1479221607</v>
+        <v>143478.1265735176</v>
       </c>
       <c r="C6" t="n">
-        <v>380183.7220929958</v>
+        <v>380183.7220929957</v>
       </c>
       <c r="D6" t="n">
-        <v>345938.5630095809</v>
+        <v>345938.5630095801</v>
       </c>
       <c r="E6" t="n">
-        <v>-397925.9997438138</v>
+        <v>-397925.9997438136</v>
       </c>
       <c r="F6" t="n">
+        <v>664449.5283995101</v>
+      </c>
+      <c r="G6" t="n">
+        <v>664449.5283995094</v>
+      </c>
+      <c r="H6" t="n">
+        <v>664449.5283995094</v>
+      </c>
+      <c r="I6" t="n">
+        <v>664449.5283995094</v>
+      </c>
+      <c r="J6" t="n">
+        <v>632734.524124427</v>
+      </c>
+      <c r="K6" t="n">
+        <v>663025.4556208313</v>
+      </c>
+      <c r="L6" t="n">
+        <v>657218.4533941591</v>
+      </c>
+      <c r="M6" t="n">
+        <v>411383.4855391333</v>
+      </c>
+      <c r="N6" t="n">
         <v>664449.5283995098</v>
       </c>
-      <c r="G6" t="n">
-        <v>664449.5283995101</v>
-      </c>
-      <c r="H6" t="n">
-        <v>664449.52839951</v>
-      </c>
-      <c r="I6" t="n">
-        <v>664449.5283995105</v>
-      </c>
-      <c r="J6" t="n">
-        <v>632747.4537204005</v>
-      </c>
-      <c r="K6" t="n">
-        <v>663038.3852168056</v>
-      </c>
-      <c r="L6" t="n">
-        <v>657218.453394159</v>
-      </c>
-      <c r="M6" t="n">
-        <v>411383.4855391328</v>
-      </c>
-      <c r="N6" t="n">
-        <v>664449.5283995096</v>
-      </c>
       <c r="O6" t="n">
-        <v>646392.441523089</v>
+        <v>646392.4415230891</v>
       </c>
       <c r="P6" t="n">
-        <v>664449.5283995097</v>
+        <v>664449.5283995098</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J2" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="K2" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221392</v>
@@ -26741,7 +26741,7 @@
         <v>286.759576367155</v>
       </c>
       <c r="D3" t="n">
-        <v>364.6928446451745</v>
+        <v>364.6928446451755</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26793,7 +26793,7 @@
         <v>14.14993519808116</v>
       </c>
       <c r="D4" t="n">
-        <v>46.7575966579949</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="E4" t="n">
         <v>1062.255112188953</v>
@@ -26811,19 +26811,19 @@
         <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
-        <v>1094.862773648866</v>
+        <v>1094.862773648867</v>
       </c>
       <c r="K4" t="n">
-        <v>1094.862773648866</v>
+        <v>1094.862773648867</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
         <v>1062.255112188953</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.57135859552599</v>
+        <v>22.57135859552571</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.038843756688081</v>
+        <v>9.038843756688273</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.57135859552579</v>
+        <v>22.57135859552573</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>26.68580426594031</v>
       </c>
       <c r="D3" t="n">
-        <v>77.93326827801945</v>
+        <v>77.93326827802048</v>
       </c>
       <c r="E3" t="n">
-        <v>913.4670259749482</v>
+        <v>913.4670259749473</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>32.60766145991374</v>
+        <v>32.60766145991442</v>
       </c>
       <c r="E4" t="n">
-        <v>1015.497515530958</v>
+        <v>1015.497515530957</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>46.75759665799465</v>
+        <v>46.75759665799524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1015.497515530958</v>
+        <v>1015.497515530957</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.57135859552599</v>
+        <v>22.57135859552571</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.60766145991374</v>
+        <v>32.60766145991442</v>
       </c>
       <c r="M4" t="n">
-        <v>1015.497515530958</v>
+        <v>1015.497515530957</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>340.5331064226018</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27397,7 @@
         <v>328.767342744786</v>
       </c>
       <c r="I2" t="n">
-        <v>156.0184404067687</v>
+        <v>170.1683756048498</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>84.19330251701729</v>
+        <v>78.60608533625884</v>
       </c>
       <c r="S2" t="n">
         <v>185.1952210163702</v>
       </c>
       <c r="T2" t="n">
-        <v>218.5190739365009</v>
+        <v>204.3691387384198</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2620110916833</v>
+        <v>237.1120758936022</v>
       </c>
       <c r="V2" t="n">
-        <v>322.1650412893765</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>152.3832484517862</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>133.2951303665576</v>
+        <v>134.9818026421689</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>130.9192771953027</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.7841132005778</v>
       </c>
       <c r="H3" t="n">
-        <v>94.36951672754662</v>
+        <v>106.8327796500165</v>
       </c>
       <c r="I3" t="n">
         <v>70.13645255901379</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51.2757827482903</v>
+        <v>65.42571794637146</v>
       </c>
       <c r="S3" t="n">
         <v>161.2924878505487</v>
@@ -27512,7 +27512,7 @@
         <v>197.9099381612271</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9045791886963</v>
+        <v>211.7546439906152</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>191.5327605792232</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>133.9706997240993</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>131.2711128248501</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.5219938677844</v>
       </c>
       <c r="H4" t="n">
-        <v>143.9075299468176</v>
+        <v>158.0574651448988</v>
       </c>
       <c r="I4" t="n">
         <v>141.3468021713432</v>
       </c>
       <c r="J4" t="n">
-        <v>46.05197072791707</v>
+        <v>60.20190592599824</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>46.89090366441096</v>
       </c>
       <c r="R4" t="n">
-        <v>156.2060983146677</v>
+        <v>142.0561631165866</v>
       </c>
       <c r="S4" t="n">
         <v>215.843459985857</v>
       </c>
       <c r="T4" t="n">
-        <v>225.9417423317639</v>
+        <v>211.7918071336828</v>
       </c>
       <c r="U4" t="n">
         <v>286.2934483297269</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>272.3730631385098</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>213.2463924665673</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27670,10 +27670,10 @@
         <v>203.8995222231468</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2534287224722</v>
+        <v>237.103493524391</v>
       </c>
       <c r="V5" t="n">
-        <v>313.6023232720538</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152.3832484517862</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>134.9818026421689</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>143.4951452573198</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.71196911443509</v>
+        <v>49.39864139004638</v>
       </c>
       <c r="S6" t="n">
-        <v>160.2263144442633</v>
+        <v>146.0763792461821</v>
       </c>
       <c r="T6" t="n">
         <v>197.6785772732988</v>
@@ -27752,7 +27752,7 @@
         <v>225.9008028956399</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>218.6506519513441</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>191.5327605792232</v>
       </c>
     </row>
     <row r="7">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>153.3239367275844</v>
+        <v>167.4738719256655</v>
       </c>
       <c r="H7" t="n">
         <v>157.6296173322416</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.86134722025398</v>
+        <v>28.71141202217282</v>
       </c>
       <c r="R7" t="n">
-        <v>154.0423608081211</v>
+        <v>139.89242561004</v>
       </c>
       <c r="S7" t="n">
-        <v>200.8548905783036</v>
+        <v>215.0048257763848</v>
       </c>
       <c r="T7" t="n">
-        <v>211.5861951991747</v>
+        <v>213.272867474786</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2908234965204</v>
+        <v>272.1408882984392</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>213.2463924665673</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>335.1727734142662</v>
       </c>
       <c r="F8" t="n">
-        <v>360.1184490837165</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>367.0790389691186</v>
       </c>
       <c r="H8" t="n">
         <v>324.4600861550741</v>
       </c>
       <c r="I8" t="n">
-        <v>153.9539965324839</v>
+        <v>153.9539965324838</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>57.77409521776296</v>
+        <v>57.77409521776271</v>
       </c>
       <c r="S8" t="n">
-        <v>175.6112728129713</v>
+        <v>175.6112728129712</v>
       </c>
       <c r="T8" t="n">
-        <v>169.9203918913254</v>
+        <v>216.6779885493203</v>
       </c>
       <c r="U8" t="n">
         <v>251.2283647567948</v>
       </c>
       <c r="V8" t="n">
-        <v>300.4048029608873</v>
+        <v>280.9946618121393</v>
       </c>
       <c r="W8" t="n">
-        <v>302.4833720594181</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>351.9298932614025</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.7755869918724</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,7 +27941,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>103.885121257022</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.5590834973701</v>
@@ -27950,7 +27950,7 @@
         <v>104.6594664637731</v>
       </c>
       <c r="I9" t="n">
-        <v>62.38871935646583</v>
+        <v>62.38871935646576</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.696540241845476</v>
+        <v>4.696540241844659</v>
       </c>
       <c r="S9" t="n">
         <v>157.1126598107028</v>
       </c>
       <c r="T9" t="n">
-        <v>197.0029105417186</v>
+        <v>155.8188194053561</v>
       </c>
       <c r="U9" t="n">
         <v>225.889774602959</v>
       </c>
       <c r="V9" t="n">
-        <v>186.0429904914304</v>
+        <v>186.0429904914297</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>159.0153885454819</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>169.7413127558477</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>99.67636598857359</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.3801298506694</v>
       </c>
       <c r="I10" t="n">
-        <v>94.48927018292528</v>
+        <v>135.6733613192871</v>
       </c>
       <c r="J10" t="n">
-        <v>46.86383171002488</v>
+        <v>46.86383171002475</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.09342371027304</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.7233781047919</v>
+        <v>147.7233781047918</v>
       </c>
       <c r="S10" t="n">
         <v>212.5556770011559</v>
       </c>
       <c r="T10" t="n">
-        <v>178.3780642951517</v>
+        <v>178.3780642951509</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2831579291487</v>
+        <v>239.5255612711532</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>239.7654016785961</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.8270566940999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I11" t="n">
         <v>12.38037836605497</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I14" t="n">
         <v>12.38037836605497</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.6102023522119</v>
       </c>
       <c r="N16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221487</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221525</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="C26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="D26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="E26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="F26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="G26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="H26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="T26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="U26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="V26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="W26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="X26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="Y26" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="C28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="D28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="E28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="F28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="G28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="H28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="I28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="J28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="K28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="L28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="M28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="N28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="O28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="P28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="R28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="S28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="T28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="U28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="V28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="W28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="X28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.57135859552598</v>
+        <v>22.5713585955257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="C29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="D29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="E29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="F29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="G29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="H29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="T29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="U29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="V29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="W29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="X29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="Y29" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="C31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="D31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="E31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="F31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="G31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="H31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="I31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="J31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="K31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="L31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="M31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="N31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="O31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="P31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="R31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="S31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="T31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="U31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="V31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="W31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="X31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.57135859552598</v>
+        <v>22.57135859552564</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221355</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="41">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.466101888020801</v>
+        <v>1.466101888020805</v>
       </c>
       <c r="H8" t="n">
-        <v>15.01471596069303</v>
+        <v>15.01471596069307</v>
       </c>
       <c r="I8" t="n">
-        <v>56.52189303792198</v>
+        <v>56.52189303792214</v>
       </c>
       <c r="J8" t="n">
-        <v>124.4335651184056</v>
+        <v>124.4335651184059</v>
       </c>
       <c r="K8" t="n">
-        <v>186.4936580383261</v>
+        <v>186.4936580383266</v>
       </c>
       <c r="L8" t="n">
-        <v>231.3618736938427</v>
+        <v>231.3618736938434</v>
       </c>
       <c r="M8" t="n">
-        <v>257.4346631449326</v>
+        <v>257.4346631449334</v>
       </c>
       <c r="N8" t="n">
-        <v>261.6002251342717</v>
+        <v>261.6002251342725</v>
       </c>
       <c r="O8" t="n">
-        <v>247.0216744852649</v>
+        <v>247.0216744852656</v>
       </c>
       <c r="P8" t="n">
-        <v>210.8272841247513</v>
+        <v>210.8272841247519</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3225102600064</v>
+        <v>158.3225102600068</v>
       </c>
       <c r="R8" t="n">
-        <v>92.09502272338672</v>
+        <v>92.09502272338698</v>
       </c>
       <c r="S8" t="n">
-        <v>33.40879677327403</v>
+        <v>33.40879677327413</v>
       </c>
       <c r="T8" t="n">
-        <v>6.417861014811059</v>
+        <v>6.417861014811077</v>
       </c>
       <c r="U8" t="n">
-        <v>0.117288151041664</v>
+        <v>0.1172881510416644</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7844336658405641</v>
+        <v>0.7844336658405662</v>
       </c>
       <c r="H9" t="n">
-        <v>7.575977772723343</v>
+        <v>7.575977772723364</v>
       </c>
       <c r="I9" t="n">
-        <v>27.00791349494925</v>
+        <v>27.00791349494932</v>
       </c>
       <c r="J9" t="n">
-        <v>74.11177892926136</v>
+        <v>74.11177892926158</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6688345405792</v>
+        <v>126.6688345405795</v>
       </c>
       <c r="L9" t="n">
-        <v>170.3218799448997</v>
+        <v>170.3218799449002</v>
       </c>
       <c r="M9" t="n">
-        <v>188.8916305800132</v>
+        <v>188.8916305800139</v>
       </c>
       <c r="N9" t="n">
-        <v>178.0993087413282</v>
+        <v>178.0993087413289</v>
       </c>
       <c r="O9" t="n">
-        <v>186.6367239949696</v>
+        <v>186.6367239949701</v>
       </c>
       <c r="P9" t="n">
-        <v>149.7924251902039</v>
+        <v>149.7924251902043</v>
       </c>
       <c r="Q9" t="n">
-        <v>100.1322693448411</v>
+        <v>100.1322693448414</v>
       </c>
       <c r="R9" t="n">
-        <v>48.70369725280275</v>
+        <v>48.70369725280289</v>
       </c>
       <c r="S9" t="n">
-        <v>14.57051129313503</v>
+        <v>14.57051129313507</v>
       </c>
       <c r="T9" t="n">
-        <v>3.161818153102974</v>
+        <v>3.161818153102983</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0516074780158266</v>
+        <v>0.05160747801582675</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6576428346060523</v>
+        <v>0.6576428346060541</v>
       </c>
       <c r="H10" t="n">
-        <v>5.847042656770178</v>
+        <v>5.847042656770195</v>
       </c>
       <c r="I10" t="n">
-        <v>19.77711360797111</v>
+        <v>19.77711360797116</v>
       </c>
       <c r="J10" t="n">
-        <v>46.49534840664789</v>
+        <v>46.49534840664803</v>
       </c>
       <c r="K10" t="n">
-        <v>76.40614023877588</v>
+        <v>76.40614023877609</v>
       </c>
       <c r="L10" t="n">
-        <v>97.77355379224892</v>
+        <v>97.77355379224919</v>
       </c>
       <c r="M10" t="n">
-        <v>103.0885036101105</v>
+        <v>103.0885036101108</v>
       </c>
       <c r="N10" t="n">
-        <v>100.6372894083971</v>
+        <v>100.6372894083974</v>
       </c>
       <c r="O10" t="n">
-        <v>92.95482538595368</v>
+        <v>92.95482538595394</v>
       </c>
       <c r="P10" t="n">
-        <v>79.53891155999014</v>
+        <v>79.53891155999037</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.06861954142135</v>
+        <v>55.0686195414215</v>
       </c>
       <c r="R10" t="n">
-        <v>29.57001327237758</v>
+        <v>29.57001327237766</v>
       </c>
       <c r="S10" t="n">
-        <v>11.46092103581638</v>
+        <v>11.46092103581641</v>
       </c>
       <c r="T10" t="n">
-        <v>2.80992847513495</v>
+        <v>2.809928475134958</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03587142734214835</v>
+        <v>0.03587142734214845</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L12" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M12" t="n">
-        <v>696.5971294879669</v>
+        <v>601.8588519561649</v>
       </c>
       <c r="N12" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P12" t="n">
-        <v>521.5364117268584</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S12" t="n">
         <v>51.06610426486996</v>
@@ -32075,10 +32075,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>443.943509024727</v>
+        <v>181.5397624588575</v>
       </c>
       <c r="L15" t="n">
         <v>596.9368339155584</v>
@@ -32096,7 +32096,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,13 +32312,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>568.4720366294247</v>
+        <v>224.608355801395</v>
       </c>
       <c r="M18" t="n">
         <v>696.5971294879669</v>
@@ -32333,7 +32333,7 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
         <v>170.6946332877214</v>
@@ -32549,25 +32549,25 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>309.5179580259316</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>681.029754709834</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
         <v>350.9392912691326</v>
@@ -32786,7 +32786,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>208.297560928827</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>443.943509024727</v>
@@ -32798,19 +32798,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>169.5095981964501</v>
       </c>
       <c r="O24" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33023,7 +33023,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
@@ -33032,16 +33032,16 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>169.5095981964506</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>401.0186270906526</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
         <v>350.9392912691326</v>
@@ -33263,10 +33263,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>443.943509024727</v>
+        <v>319.9760564261444</v>
       </c>
       <c r="L30" t="n">
-        <v>472.9693813169759</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33500,19 +33500,19 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>224.608355801395</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879669</v>
+        <v>529.6867378368194</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>524.986079689235</v>
@@ -33679,7 +33679,7 @@
         <v>554.8819566972011</v>
       </c>
       <c r="R35" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S35" t="n">
         <v>117.0897208110796</v>
@@ -33734,13 +33734,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>430.0264422644108</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
@@ -33749,7 +33749,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>566.9744705739</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>524.986079689235</v>
@@ -33901,7 +33901,7 @@
         <v>810.867191086975</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654304</v>
       </c>
       <c r="N38" t="n">
         <v>916.8452708117591</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>190.0206421035408</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>443.943509024727</v>
@@ -33980,13 +33980,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>662.5929014817382</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>524.986079689235</v>
@@ -33995,7 +33995,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>262.3699665790566</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34229,7 +34229,7 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>170.6946332877214</v>
@@ -34445,19 +34445,19 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>224.608355801395</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>380.4671153795611</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578283</v>
@@ -34466,7 +34466,7 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>170.6946332877214</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13.57822064462334</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>13.57822064462334</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>13.57822064462334</v>
+      </c>
+      <c r="K3" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="K3" t="n">
-        <v>13.57822064462334</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="N3" t="n">
         <v>14.14993519808116</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="L4" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>13.57822064462334</v>
@@ -34869,10 +34869,10 @@
         <v>14.14993519808116</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>14.14993519808116</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>13.57822064462334</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>14.14993519808116</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>14.14993519808116</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.14993519808116</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>14.14993519808116</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>14.14993519808116</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>13.57822064462334</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>14.14993519808116</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>14.14993519808116</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="K8" t="n">
-        <v>46.7575966579949</v>
+        <v>42.51537289016525</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>46.7575966579949</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="N8" t="n">
-        <v>32.18716153768082</v>
+        <v>32.18716153768156</v>
       </c>
       <c r="O8" t="n">
-        <v>46.7575966579949</v>
+        <v>16.92346306357888</v>
       </c>
       <c r="P8" t="n">
-        <v>12.68123929574865</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>31.7675001650255</v>
+        <v>31.76750016502598</v>
       </c>
       <c r="M9" t="n">
-        <v>46.7575966579949</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="N9" t="n">
-        <v>46.7575966579949</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="O9" t="n">
-        <v>44.04047955052519</v>
+        <v>44.0404795505257</v>
       </c>
       <c r="P9" t="n">
-        <v>15.81801777587361</v>
+        <v>15.81801777587404</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="L10" t="n">
-        <v>46.7575966579949</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="M10" t="n">
-        <v>46.7575966579949</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>44.86840083342946</v>
+        <v>46.75759665799558</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>44.86840083343011</v>
       </c>
       <c r="P10" t="n">
-        <v>46.7575966579949</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227526</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R11" t="n">
         <v>107.1851555440239</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L12" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>459.7248180341467</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P12" t="n">
-        <v>387.5620043125282</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L13" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M13" t="n">
         <v>432.4942538895098</v>
@@ -35583,7 +35583,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P13" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q13" t="n">
         <v>138.4502995641581</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116848</v>
       </c>
       <c r="K14" t="n">
         <v>433.5251384721831</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>306.102070050368</v>
+        <v>43.69832348449846</v>
       </c>
       <c r="L15" t="n">
         <v>458.3824541356842</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K16" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L16" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M16" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895078</v>
       </c>
       <c r="N16" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O16" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P16" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>429.9176568495505</v>
+        <v>86.05397602152078</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
@@ -35981,7 +35981,7 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
         <v>25.01512932375741</v>
@@ -36042,22 +36042,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
         <v>138.4502995641581</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>170.9635782460575</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>549.6880426265008</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
         <v>210.9575171831111</v>
@@ -36279,22 +36279,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36358,7 +36358,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721837</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169878</v>
@@ -36367,7 +36367,7 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
-        <v>687.432207215169</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
         <v>635.6527791348809</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>81.45993426216026</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>306.102070050368</v>
@@ -36446,19 +36446,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>38.16788611311679</v>
       </c>
       <c r="O24" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
@@ -36528,10 +36528,10 @@
         <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908725</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36610,13 +36610,13 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>636.7786093962391</v>
+        <v>571.0621895232598</v>
       </c>
       <c r="Q26" t="n">
         <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
@@ -36680,16 +36680,16 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>38.16788611311724</v>
       </c>
       <c r="O27" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>267.0442196763223</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
         <v>210.9575171831111</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.16708526266784</v>
+        <v>92.16708526266757</v>
       </c>
       <c r="K28" t="n">
-        <v>268.0868363848098</v>
+        <v>268.0868363848095</v>
       </c>
       <c r="L28" t="n">
-        <v>392.8339498250469</v>
+        <v>392.8339498250466</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4554101328218</v>
+        <v>423.4554101328216</v>
       </c>
       <c r="N28" t="n">
-        <v>419.4127949444028</v>
+        <v>419.4127949444025</v>
       </c>
       <c r="O28" t="n">
-        <v>372.9405794341832</v>
+        <v>372.940579434183</v>
       </c>
       <c r="P28" t="n">
-        <v>298.6144902986179</v>
+        <v>298.6144902986176</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.4114558074701</v>
+        <v>129.4114558074698</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>801.0129188067032</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151681</v>
@@ -36850,7 +36850,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227516</v>
+        <v>461.6894313913024</v>
       </c>
       <c r="R29" t="n">
         <v>107.1851555440239</v>
@@ -36911,10 +36911,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>306.102070050368</v>
+        <v>182.1346174517854</v>
       </c>
       <c r="L30" t="n">
-        <v>334.4150015371017</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.16708526266784</v>
+        <v>92.1670852626675</v>
       </c>
       <c r="K31" t="n">
-        <v>268.0868363848098</v>
+        <v>268.0868363848094</v>
       </c>
       <c r="L31" t="n">
-        <v>392.8339498250469</v>
+        <v>392.8339498250465</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4554101328218</v>
+        <v>423.4554101328215</v>
       </c>
       <c r="N31" t="n">
-        <v>419.4127949444028</v>
+        <v>419.4127949444024</v>
       </c>
       <c r="O31" t="n">
-        <v>372.9405794341832</v>
+        <v>372.9405794341829</v>
       </c>
       <c r="P31" t="n">
-        <v>298.6144902986179</v>
+        <v>298.6144902986176</v>
       </c>
       <c r="Q31" t="n">
-        <v>129.4114558074701</v>
+        <v>129.4114558074698</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M32" t="n">
-        <v>671.899754238155</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N32" t="n">
         <v>687.4322072151681</v>
@@ -37148,19 +37148,19 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>86.05397602152081</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>387.552703914801</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>391.0116722749048</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>291.4720624845367</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
@@ -37397,7 +37397,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>424.3782261294556</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749048</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L37" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641583</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381577</v>
       </c>
       <c r="N38" t="n">
         <v>687.4322072151681</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>63.18301543687413</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
@@ -37628,13 +37628,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>520.4588675597198</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>391.0116722749048</v>
@@ -37643,7 +37643,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>123.8155867991825</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37877,7 +37877,7 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>25.01512932375741</v>
@@ -38035,7 +38035,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227526</v>
       </c>
       <c r="R44" t="n">
         <v>107.1851555440239</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>86.05397602152078</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>249.1254032962278</v>
       </c>
       <c r="O45" t="n">
         <v>511.5201565133839</v>
@@ -38114,7 +38114,7 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>25.01512932375741</v>
